--- a/data/trans_bre/PCS12_SP_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/PCS12_SP_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>26,5%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,24%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>3,1; 21,11</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 17,04</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9,19; 24,67</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5,87; 51,21</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 40,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,27; 42,06</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,25</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,9</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,45%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,75; 16,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,85; 19,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,71; 14,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,11; 17,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,09; 36,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,76; 41,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,88; 34,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,18; 41,85</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,16%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,68; 34,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,63; 17,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 11,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,56; 5,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,06; 94,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,73; 45,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,08; 40,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,86; 11,09</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,87%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,33; 26,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,85; 14,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 14,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,49; 9,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,57; 73,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,27; 36,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 27,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,49; 21,31</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,79</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,38%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,46%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,17; 24,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,37; 22,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 16,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,19; 18,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,48; 83,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,57; 56,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,7; 64,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,85; 51,7</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,26</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,38</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,45</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,8%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,72; 33,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 17,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,21; 18,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 14,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,43; 87,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,85; 40,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,67; 57,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,88; 28,6</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,74</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,58</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,56%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,49; 16,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,59; 17,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,59; 16,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,93; 25,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,28; 39,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,22; 44,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,41; 46,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,59; 57,12</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,12</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,5</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,24%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,7; 14,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,01; 13,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,8; 15,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,23; 11,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,89; 39,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,44; 34,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,67; 52,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,23; 37,6</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,48</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,7%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,04; 16,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,93; 12,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,31; 11,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,95; 12,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,23; 41,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,39; 29,42</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,74; 29,72</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,84; 26,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PCS12_SP_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,19</t>
+          <t>19,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>31,28%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,72; 13,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,19; 24,67</t>
+          <t>10,36; 27,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,53; 32,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,27; 42,06</t>
+          <t>15,27; 50,04</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,9</t>
+          <t>11,08</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>24,7%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 17,2</t>
+          <t>4,3; 18,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 41,85</t>
+          <t>8,51; 46,13</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,16%</t>
+          <t>-1,01%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 5,61</t>
+          <t>-8,04; 6,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 11,09</t>
+          <t>-14,26; 12,36</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>13,2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>-14,05%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 14,83</t>
+          <t>5,72; 20,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 9,44</t>
+          <t>-27,95; 5,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,27; 36,64</t>
+          <t>13,62; 60,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 21,31</t>
+          <t>-51,82; 11,13</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,39</t>
+          <t>11,28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>27,15%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,19; 18,64</t>
+          <t>3,16; 18,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,85; 51,7</t>
+          <t>6,82; 51,1</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,55</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>13,08%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 14,42</t>
+          <t>-0,67; 15,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 28,6</t>
+          <t>-0,95; 30,21</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,58</t>
+          <t>15,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>31,86%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 25,76</t>
+          <t>1,73; 34,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 57,12</t>
+          <t>3,36; 78,28</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>-8,54</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>-17,28%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 11,48</t>
+          <t>-36,85; 10,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 37,6</t>
+          <t>-49,69; 35,31</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>9,88%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,95; 12,03</t>
+          <t>-6,71; 12,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,84; 26,13</t>
+          <t>-12,97; 25,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PCS12_SP_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 21,11</t>
+          <t>3,0; 20,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 13,95</t>
+          <t>-3,56; 12,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 17,04</t>
+          <t>0,24; 17,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,36; 27,33</t>
+          <t>11,09; 27,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 51,21</t>
+          <t>6,09; 51,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 32,02</t>
+          <t>-5,71; 28,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 40,81</t>
+          <t>0,35; 42,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,27; 50,04</t>
+          <t>16,42; 52,31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,75; 16,82</t>
+          <t>3,63; 16,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,85; 19,84</t>
+          <t>6,88; 19,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 14,16</t>
+          <t>1,42; 14,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 18,47</t>
+          <t>4,35; 17,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,09; 36,54</t>
+          <t>6,83; 35,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,76; 41,96</t>
+          <t>12,9; 40,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,88; 34,71</t>
+          <t>2,86; 34,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,51; 46,13</t>
+          <t>8,8; 43,73</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,68; 34,9</t>
+          <t>19,5; 34,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 17,86</t>
+          <t>2,59; 18,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 11,02</t>
+          <t>-4,17; 10,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 6,1</t>
+          <t>-8,14; 6,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>43,06; 94,21</t>
+          <t>43,16; 91,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,73; 45,76</t>
+          <t>5,65; 47,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 40,68</t>
+          <t>-12,17; 38,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 12,36</t>
+          <t>-13,86; 13,06</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,33; 26,55</t>
+          <t>12,26; 26,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,72; 20,44</t>
+          <t>6,39; 20,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 14,54</t>
+          <t>1,17; 15,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,95; 5,55</t>
+          <t>-25,87; 5,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,57; 73,32</t>
+          <t>27,35; 71,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,62; 60,72</t>
+          <t>14,67; 61,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 27,99</t>
+          <t>2,15; 30,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,82; 11,13</t>
+          <t>-48,72; 11,7</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,17; 24,38</t>
+          <t>4,77; 24,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 22,74</t>
+          <t>4,16; 23,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 16,59</t>
+          <t>-0,65; 16,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 18,5</t>
+          <t>3,12; 18,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,48; 83,43</t>
+          <t>12,22; 85,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,57; 56,64</t>
+          <t>8,55; 60,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 64,98</t>
+          <t>-1,63; 62,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,82; 51,1</t>
+          <t>6,04; 50,85</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,72; 33,59</t>
+          <t>17,29; 33,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,41; 17,07</t>
+          <t>-0,12; 16,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,21; 18,14</t>
+          <t>1,53; 18,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 15,1</t>
+          <t>-0,32; 14,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>37,43; 87,88</t>
+          <t>35,84; 85,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,85; 40,56</t>
+          <t>0,09; 40,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,67; 57,44</t>
+          <t>5,24; 61,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 30,21</t>
+          <t>-0,61; 29,09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,49; 16,93</t>
+          <t>6,37; 17,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,59; 17,21</t>
+          <t>5,33; 16,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,59; 16,27</t>
+          <t>4,83; 16,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 34,72</t>
+          <t>1,62; 36,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,28; 39,38</t>
+          <t>12,88; 43,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,22; 44,17</t>
+          <t>11,6; 43,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,41; 46,66</t>
+          <t>12,02; 46,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,36; 78,28</t>
+          <t>3,26; 81,81</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,7; 14,01</t>
+          <t>3,46; 13,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,01; 13,6</t>
+          <t>2,94; 13,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,8; 15,34</t>
+          <t>5,47; 15,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,85; 10,74</t>
+          <t>-40,66; 11,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,89; 39,87</t>
+          <t>8,45; 38,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,44; 34,58</t>
+          <t>6,29; 33,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,67; 52,47</t>
+          <t>15,91; 51,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-49,69; 35,31</t>
+          <t>-51,81; 36,62</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,04; 16,95</t>
+          <t>11,98; 16,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,93; 12,58</t>
+          <t>7,77; 12,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,31; 11,21</t>
+          <t>6,09; 11,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 12,12</t>
+          <t>-6,07; 12,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27,23; 41,08</t>
+          <t>27,35; 40,73</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,39; 29,42</t>
+          <t>17,15; 30,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,74; 29,72</t>
+          <t>14,88; 29,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 25,26</t>
+          <t>-11,29; 25,91</t>
         </is>
       </c>
     </row>
